--- a/TestCasesDataFilePathMapper.xlsx
+++ b/TestCasesDataFilePathMapper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUNNY\eclipse-workspace\GitSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49174CA-D9D4-4B46-A0B8-CD050A3CFBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA2DDB8-A691-4592-B43F-13932EC64A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31FAEBEF-6759-43E5-8F7B-104D47B7AC16}"/>
+    <workbookView xWindow="2890" yWindow="370" windowWidth="14400" windowHeight="7400" xr2:uid="{31FAEBEF-6759-43E5-8F7B-104D47B7AC16}"/>
   </bookViews>
   <sheets>
     <sheet name="filePath" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>DataFilePath</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>checkCartProductsSameAsFoundItems</t>
+  </si>
+  <si>
+    <t>testCase4</t>
+  </si>
+  <si>
+    <t>testCase5</t>
+  </si>
+  <si>
+    <t>testCase6</t>
+  </si>
+  <si>
+    <t>CartUsingDatabaseTests</t>
+  </si>
+  <si>
+    <t>\src\test\java\RC\TestData\cartTestData3.json</t>
   </si>
 </sst>
 </file>
@@ -464,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C70247E-0F1D-40E4-85FB-F68411442869}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,11 +549,56 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="\\src\\test\\java\\RC\\TestData\\cartTestData.json" xr:uid="{AC83C8CB-69F3-45EC-8173-3C3CF5C8B7A9}"/>
     <hyperlink ref="D2" r:id="rId2" display="\\src\\test\\java\\RC\\TestData\\cartTestData.json" xr:uid="{D430AC6F-BBFC-4BB4-9EC3-A5BC40938A18}"/>
     <hyperlink ref="D4" r:id="rId3" display="\\src\\test\\java\\RC\\TestData\\cartTestData.json" xr:uid="{3A05BD1C-2FE8-40A9-BF9E-0EF7FA47504B}"/>
+    <hyperlink ref="D5" r:id="rId4" display="\\src\\test\\java\\RC\\TestData\\cartTestData.json" xr:uid="{6CD6B5B3-74E3-4416-8B2A-A2543E0ACF81}"/>
+    <hyperlink ref="D6" r:id="rId5" display="\\src\\test\\java\\RC\\TestData\\cartTestData.json" xr:uid="{7AC0095F-A97D-41B6-AF9F-15661B3FEC84}"/>
+    <hyperlink ref="D7" r:id="rId6" display="\\src\\test\\java\\RC\\TestData\\cartTestData.json" xr:uid="{45999A54-FB03-403C-88B7-5B8EBED5AD39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
